--- a/replacements.xlsx
+++ b/replacements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoesqui/Downloads/csv_processor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melrevellat/Documents/2. Areas/2. Finances/CSV Processor/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2138815C-4CB5-E54C-85BA-06441BCD2A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE011C84-A72D-9A41-9E61-633BD29235BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="6420" windowWidth="28040" windowHeight="17440" xr2:uid="{40803168-2CC0-D248-8AC2-D2026F54A46A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27660" windowHeight="17440" xr2:uid="{40803168-2CC0-D248-8AC2-D2026F54A46A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>source_column</t>
   </si>
@@ -53,25 +53,31 @@
     <t>is</t>
   </si>
   <si>
-    <t>Alimentation</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
-    <t>Supermarché</t>
-  </si>
-  <si>
     <t>label</t>
   </si>
   <si>
+    <t>VIR SEPA EXPLEO FRANCE</t>
+  </si>
+  <si>
+    <t>Salaire Diego</t>
+  </si>
+  <si>
+    <t>supplierFound</t>
+  </si>
+  <si>
     <t>contains</t>
   </si>
   <si>
-    <t>EXPLEO</t>
-  </si>
-  <si>
-    <t>amount</t>
+    <t>Expleo</t>
+  </si>
+  <si>
+    <t>CSE EXPLEO</t>
+  </si>
+  <si>
+    <t>CSE Expleo</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -424,7 +430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,17 +438,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912F5630-1A54-644C-B06F-11687E3A93AC}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
   </cols>
@@ -472,30 +478,47 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
